--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school\ictproject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nickc\Desktop\ictProj3-CaptureTheFlag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5940" xr2:uid="{BA5D71C8-65EF-4B93-AF97-63511DFEB1FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{BA5D71C8-65EF-4B93-AF97-63511DFEB1FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>sprint</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>punten over</t>
+  </si>
+  <si>
+    <t>ideaal</t>
   </si>
 </sst>
 </file>
@@ -105,6 +108,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Burndownchart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -137,8 +165,117 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideaal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9175-4F4B-9C64-7D0BBF2F8E5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="410625976"/>
+        <c:axId val="410621712"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -155,7 +292,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -164,21 +301,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:numRef>
               <c:f>Blad1!$A$6:$A$12</c:f>
               <c:numCache>
@@ -207,8 +332,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Blad1!$B$6:$B$12</c:f>
               <c:numCache>
@@ -237,11 +362,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8C7F-4D90-85FD-010AB1945226}"/>
+              <c16:uniqueId val="{00000000-9175-4F4B-9C64-7D0BBF2F8E5E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -253,30 +378,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="415172832"/>
-        <c:axId val="415174472"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="415172832"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="412584696"/>
+        <c:axId val="260305768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="410625976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -286,8 +399,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -314,12 +427,15 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415174472"/>
+        <c:crossAx val="410621712"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="415174472"/>
+        <c:axId val="410621712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -345,14 +461,8 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -376,10 +486,69 @@
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="415172832"/>
+        <c:crossAx val="410625976"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="260305768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412584696"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="412584696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="260305768"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -388,6 +557,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -466,7 +666,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -493,8 +693,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -574,6 +774,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -584,6 +789,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -595,7 +805,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -615,6 +825,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -627,10 +840,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -670,23 +883,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -791,8 +1003,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -924,20 +1136,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -951,17 +1162,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -985,23 +1185,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2">
+        <xdr:cNvPr id="2" name="Grafiek 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A219E1-48AD-4C70-82C7-A0F85B3058D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54543C83-E552-4F32-8758-81A2033F7011}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1319,10 +1519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF2DDE9-ED77-48B0-B7B0-D5EFC6AAEDF7}">
-  <dimension ref="A3:C12"/>
+  <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1330,7 +1530,7 @@
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1538,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1346,90 +1546,120 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6">
-        <f>$C$3-C6</f>
+        <f>$C$3-D6</f>
         <v>81</v>
       </c>
       <c r="C6">
+        <v>81</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <f>B6-C7</f>
+        <f>B6-D7</f>
         <v>66</v>
       </c>
       <c r="C7">
+        <f>C6-13.5</f>
+        <v>67.5</v>
+      </c>
+      <c r="D7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B12" si="0">B7-C8</f>
+        <f>B7-D8</f>
         <v>66</v>
       </c>
       <c r="C8">
+        <f t="shared" ref="C8:C12" si="0">C7-13.5</f>
+        <v>54</v>
+      </c>
+      <c r="D8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
       <c r="B9">
+        <f>B8-D9</f>
+        <v>66</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C9">
+        <v>40.5</v>
+      </c>
+      <c r="D9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10">
+        <f>B9-D10</f>
+        <v>66</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11">
+        <f>B10-D11</f>
+        <v>66</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C11">
+        <v>13.5</v>
+      </c>
+      <c r="D11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12">
+        <f>B11-D12</f>
+        <v>66</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>0</v>
       </c>
     </row>

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -346,19 +346,19 @@
                   <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -544,6 +544,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="260305768"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1522,7 +1523,7 @@
   <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1572,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f>B6-D7</f>
+        <f t="shared" ref="B7:B12" si="0">B6-D7</f>
         <v>66</v>
       </c>
       <c r="C7">
@@ -1588,15 +1589,15 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <f>B7-D8</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C12" si="0">C7-13.5</f>
+        <f t="shared" ref="C8:C12" si="1">C7-13.5</f>
         <v>54</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1604,11 +1605,11 @@
         <v>3</v>
       </c>
       <c r="B9">
-        <f>B8-D9</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>40.5</v>
       </c>
       <c r="D9">
@@ -1620,11 +1621,11 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <f>B9-D10</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D10">
@@ -1636,11 +1637,11 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <f>B10-D11</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
       <c r="D11">
@@ -1652,11 +1653,11 @@
         <v>6</v>
       </c>
       <c r="B12">
-        <f>B11-D12</f>
-        <v>66</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12">

--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -231,22 +232,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.5</c:v>
+                  <c:v>68.333333333333329</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54</c:v>
+                  <c:v>54.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.5</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>27.333333333333336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.5</c:v>
+                  <c:v>13.66666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -340,25 +341,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -495,39 +496,12 @@
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
         <c:crossAx val="412584696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
@@ -1523,7 +1497,7 @@
   <dimension ref="A3:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,7 +1510,11 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D3">
+        <f>82/6</f>
+        <v>13.666666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1559,10 +1537,10 @@
       </c>
       <c r="B6">
         <f>$C$3-D6</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1574,11 +1552,11 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B12" si="0">B6-D7</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7">
-        <f>C6-13.5</f>
-        <v>67.5</v>
+        <f>C6-$D$3</f>
+        <v>68.333333333333329</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -1590,11 +1568,11 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C12" si="1">C7-13.5</f>
-        <v>54</v>
+        <f t="shared" ref="C8:C12" si="1">C7-$D$3</f>
+        <v>54.666666666666664</v>
       </c>
       <c r="D8">
         <v>24</v>
@@ -1606,11 +1584,11 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1622,11 +1600,11 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>27.333333333333336</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1638,11 +1616,11 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1654,7 +1632,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -1666,6 +1644,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84857A99-9EC1-4D5D-AC1A-BF87A6793C5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{BA5D71C8-65EF-4B93-AF97-63511DFEB1FE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -216,12 +216,6 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -232,24 +226,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.333333333333329</c:v>
+                  <c:v>57.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>54.666666666666664</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41</c:v>
+                  <c:v>19.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.333333333333336</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13.66666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -325,12 +313,6 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -341,25 +323,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -600,7 +576,398 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Burndownchart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ideaal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Blad1!$A$6:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$C$6:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9056-406D-B5A2-7CA85676F7E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="410625976"/>
+        <c:axId val="410621712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="410625976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410621712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410621712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410625976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1156,6 +1523,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1181,6 +2064,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3F1C38-062E-4D17-B92D-6A5733EC3291}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1493,11 +2419,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF2DDE9-ED77-48B0-B7B0-D5EFC6AAEDF7}">
-  <dimension ref="A3:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,11 +2436,11 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D3">
-        <f>82/6</f>
-        <v>13.666666666666666</v>
+        <f>77/4</f>
+        <v>19.25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,10 +2463,10 @@
       </c>
       <c r="B6">
         <f>$C$3-D6</f>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1552,11 +2478,11 @@
       </c>
       <c r="B7">
         <f t="shared" ref="B7:B12" si="0">B6-D7</f>
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C7">
         <f>C6-$D$3</f>
-        <v>68.333333333333329</v>
+        <v>57.75</v>
       </c>
       <c r="D7">
         <v>15</v>
@@ -1568,14 +2494,14 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8:C12" si="1">C7-$D$3</f>
-        <v>54.666666666666664</v>
+        <v>38.5</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1584,14 +2510,14 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>19.25</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1600,45 +2526,13 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>27.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>13.66666666666667</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12">
         <v>0</v>
       </c>
     </row>
@@ -1650,7 +2544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84857A99-9EC1-4D5D-AC1A-BF87A6793C5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1658,5 +2552,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/burndownchart.xlsx
+++ b/burndownchart.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,6 +170,102 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>punten over</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$A$6:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$A$6:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$B$6:$B$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9175-4F4B-9C64-7D0BBF2F8E5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -197,10 +293,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$6:$A$12</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$A$6:$A$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$A$6:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -221,10 +324,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$6:$C$12</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Blad1!$C$6:$C$12</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Blad1!$C$6:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>77</c:v>
                 </c:pt>
@@ -247,488 +357,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9175-4F4B-9C64-7D0BBF2F8E5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="410625976"/>
-        <c:axId val="410621712"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>punten over</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad1!$A$6:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$B$6:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9175-4F4B-9C64-7D0BBF2F8E5E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="412584696"/>
-        <c:axId val="260305768"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="410625976"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="410621712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="410621712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="nl-BE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="410625976"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="260305768"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="412584696"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="412584696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260305768"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="nl-BE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="nl-BE"/>
-              <a:t>Burndownchart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="nl-BE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Blad1!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ideaal</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Blad1!$A$6:$A$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Blad1!$C$6:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.75</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>38.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9056-406D-B5A2-7CA85676F7E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -922,7 +550,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="portrait"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -967,563 +595,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2064,49 +1136,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3F1C38-062E-4D17-B92D-6A5733EC3291}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2419,11 +1448,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2477,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B12" si="0">B6-D7</f>
+        <f t="shared" ref="B7:B10" si="0">B6-D7</f>
         <v>62</v>
       </c>
       <c r="C7">
@@ -2497,7 +1526,7 @@
         <v>39</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C12" si="1">C7-$D$3</f>
+        <f t="shared" ref="C8:C10" si="1">C7-$D$3</f>
         <v>38.5</v>
       </c>
       <c r="D8">
@@ -2544,7 +1573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2552,6 +1581,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>